--- a/outputs/zuordnung_komplett.xlsx
+++ b/outputs/zuordnung_komplett.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,23 +512,23 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>48.425063</v>
+        <v>48.428769</v>
       </c>
       <c r="F2" t="n">
-        <v>11.59758</v>
+        <v>11.597339</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4038148832891171</v>
+        <v>0.4124718946760594</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>85391 Allershausen Anton Lamprecht Ring 36a</t>
+          <t>Seestrasse 2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,23 +562,23 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>48.4249839782714</v>
+        <v>48.425063</v>
       </c>
       <c r="F3" t="n">
-        <v>11.5921087265014</v>
+        <v>11.59758</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4038148832891171</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Adalharstraße 64</t>
+          <t>85391 Allershausen Anton Lamprecht Ring 36a</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
         <v>48.4249839782714</v>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>48.4346580505371</v>
@@ -812,23 +812,23 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>48.428769</v>
+        <v>48.436217</v>
       </c>
       <c r="F8" t="n">
-        <v>11.597339</v>
+        <v>11.596701</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8295163810388757</v>
+        <v>1.104669636506213</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Seestrasse 2</t>
+          <t>85391 Allershausen, Dominikus-Käser-Str 28a</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -862,23 +862,23 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>48.436217</v>
+        <v>48.43462</v>
       </c>
       <c r="F9" t="n">
-        <v>11.596701</v>
+        <v>11.581922</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.104669636506213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Dominikus-Käser-Str 28a</t>
+          <t>Am Moosbolt 4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -905,45 +905,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17-18 Uhr</t>
+          <t>18-19 Uhr</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>48.43462</v>
+        <v>48.434362</v>
       </c>
       <c r="F10" t="n">
-        <v>11.581922</v>
+        <v>11.594704</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Am Moosbolt 4</t>
+          <t>85391 Allershausen, Mühlbachstr. 25</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -959,41 +959,41 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>48.434362</v>
+        <v>48.426256</v>
       </c>
       <c r="F11" t="n">
-        <v>11.594704</v>
+        <v>11.59824</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.3609665228319545</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Mühlbachstr. 25</t>
+          <t xml:space="preserve">Seestr.19,85391 allershausen </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K5</t>
         </is>
       </c>
     </row>
@@ -1012,28 +1012,28 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>48.426256</v>
+        <v>48.428989</v>
       </c>
       <c r="F12" t="n">
-        <v>11.59824</v>
+        <v>11.60088</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3609665228319545</v>
+        <v>0.4045780010995473</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seestr.19,85391 allershausen </t>
+          <t>85391, Allershausen, Auenstraße, 6a</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1062,28 +1062,28 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>48.428989</v>
+        <v>48.432186</v>
       </c>
       <c r="F13" t="n">
-        <v>11.60088</v>
+        <v>11.603498</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4045780010995473</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Auenstraße, 6a</t>
+          <t>Glonntalstraße 33, Allershausen</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K5</t>
         </is>
       </c>
     </row>
@@ -1105,30 +1105,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>18-19 Uhr</t>
+          <t>19-20 Uhr</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>48.432186</v>
+        <v>48.4283561706543</v>
       </c>
       <c r="F14" t="n">
-        <v>11.603498</v>
+        <v>11.59894657135</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Glonntalstraße 33, Allershausen</t>
+          <t>Händelstr 1 B</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>N6</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K1</t>
         </is>
       </c>
     </row>
@@ -1155,20 +1155,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19-20 Uhr</t>
+          <t>später</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>48.4283561706543</v>
+        <v>48.433643</v>
       </c>
       <c r="F15" t="n">
-        <v>11.59894657135</v>
+        <v>11.602454</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Händelstr 1 B</t>
+          <t>Allershausen, Pfarrsaal</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1188,62 +1188,62 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>K2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5.12 Freitag</t>
+          <t>6.12 Samstag</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>später</t>
+          <t>17-18 Uhr</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>48.433643</v>
+        <v>48.4264602661132</v>
       </c>
       <c r="F16" t="n">
-        <v>11.602454</v>
+        <v>11.5963563919067</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8569815972199567</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Allershausen, Pfarrsaal</t>
+          <t>85391, Allershausen, Joseph-Haydn-Str. 5b</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1262,28 +1262,28 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>48.430188</v>
+        <v>48.433445</v>
       </c>
       <c r="F17" t="n">
-        <v>11.58537</v>
+        <v>11.591447</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1734894098521983</v>
+        <v>5.087000448230492</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>85391,Allershausen, Albert-Schweitzer-Str. 3a</t>
+          <t>Breimannweg 19 85391 Allershausen</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K1</t>
         </is>
       </c>
     </row>
@@ -1312,28 +1312,28 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>48.4295196533203</v>
+        <v>48.4758245</v>
       </c>
       <c r="F18" t="n">
-        <v>11.5832452774047</v>
+        <v>11.5654661</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7461118235880047</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bonhoeffer Str 4, 85391 Allershausen</t>
+          <t xml:space="preserve">Am Anger 26 Allershausen 85391 </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1359,26 +1359,26 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>48.433445</v>
+        <v>48.4354</v>
       </c>
       <c r="F19" t="n">
-        <v>11.591447</v>
+        <v>11.59461</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1769267891849364</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Breimannweg 19 85391 Allershausen</t>
+          <t>85391 Allershausen, Dominikus-Käser-Straße 33</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>K2</t>
         </is>
       </c>
     </row>
@@ -1412,28 +1412,28 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>48.4343224</v>
+        <v>48.436824</v>
       </c>
       <c r="F20" t="n">
-        <v>11.6005968</v>
+        <v>11.59568</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8530483050139228</v>
+        <v>0.1268319155435819</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Kirchstraße 1a, 85391 Allershausen</t>
+          <t>85391 Allershausen, Kohlstattweg 10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1462,23 +1462,23 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>48.430498</v>
+        <v>48.4360618591308</v>
       </c>
       <c r="F21" t="n">
-        <v>11.61062</v>
+        <v>11.5969591140747</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>7.133917784227932</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Göttschlag 24</t>
+          <t>85391, Allershausen, Dominikus-Käser-Str. 18</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1509,41 +1509,41 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>48.4332126</v>
+        <v>48.4343224</v>
       </c>
       <c r="F22" t="n">
-        <v>11.5140135</v>
+        <v>11.6005968</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.8646083676645562</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>85391 Allershausen (Mitte)</t>
+          <t>Kirchstraße 1a, 85391 Allershausen</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K3</t>
         </is>
       </c>
     </row>
@@ -1562,23 +1562,23 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>48.4264602661132</v>
+        <v>48.4275164</v>
       </c>
       <c r="F23" t="n">
-        <v>11.5963563919067</v>
+        <v>11.5949299</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9937149949496524</v>
+        <v>5.425358672826817</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Joseph-Haydn-Str. 5b</t>
+          <t>85391 Allershausen (Mitte)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1612,23 +1612,23 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
-        <v>48.4353173</v>
+        <v>48.458248</v>
       </c>
       <c r="F24" t="n">
-        <v>11.5981507</v>
+        <v>11.652058</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>5.108558626054327</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">85391 Mühlbachstr 12a </t>
+          <t xml:space="preserve">Blumenstraße16, 85414 Kirchdorf </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1659,26 +1659,26 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="n">
-        <v>48.4758245</v>
+        <v>48.4061470031738</v>
       </c>
       <c r="F25" t="n">
-        <v>11.5654661</v>
+        <v>11.5870094299316</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Am Anger 26 Allershausen 85391 </t>
+          <t>Dorfstraße 39c, Leonhardsbuch, 85391</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1712,23 +1712,23 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>48.458248</v>
+        <v>48.4061470031738</v>
       </c>
       <c r="F26" t="n">
-        <v>11.652058</v>
+        <v>11.5870094299316</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>5.296069466977078</v>
+        <v>0.2871864730296942</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blumenstraße16, 85414 Kirchdorf </t>
+          <t xml:space="preserve">85391 Allershausen/Leonhardsbuch, Dorfstr.39c, </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1762,28 +1762,28 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
-        <v>48.429034</v>
+        <v>48.4036712646484</v>
       </c>
       <c r="F27" t="n">
-        <v>11.595351</v>
+        <v>11.5859012603759</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Mozartstraße 11</t>
+          <t xml:space="preserve">Am Kirchberg 5c, 85391 Leonhardsbuch </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1812,23 +1812,23 @@
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>48.4061470031738</v>
+        <v>48.430188</v>
       </c>
       <c r="F28" t="n">
-        <v>11.5870094299316</v>
+        <v>11.58537</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.1734894098521983</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Dorfstraße 39c, Leonhardsbuch, 85391</t>
+          <t>85391,Allershausen, Albert-Schweitzer-Str. 3a</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1862,23 +1862,23 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>48.4061470031738</v>
+        <v>48.4295196533203</v>
       </c>
       <c r="F29" t="n">
-        <v>11.5870094299316</v>
+        <v>11.5832452774047</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2871864730296942</v>
+        <v>0.9822257580859235</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">85391 Allershausen/Leonhardsbuch, Dorfstr.39c, </t>
+          <t>Bonhoeffer Str 4, 85391 Allershausen</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1912,13 +1912,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
-        <v>48.4036712646484</v>
+        <v>48.4356002807617</v>
       </c>
       <c r="F30" t="n">
-        <v>11.5859012603759</v>
+        <v>11.5929021835327</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1928,12 +1928,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Am Kirchberg 5c, 85391 Leonhardsbuch </t>
+          <t>Amselweg 10, Allershausen</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K5</t>
         </is>
       </c>
     </row>
@@ -1962,23 +1962,23 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" t="n">
-        <v>48.4354</v>
+        <v>48.430498</v>
       </c>
       <c r="F31" t="n">
-        <v>11.59461</v>
+        <v>11.61062</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1769267891849364</v>
+        <v>1.064651664319568</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Dominikus-Käser-Straße 33</t>
+          <t>85391, Allershausen, Göttschlag 24</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2012,28 +2012,28 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>48.436824</v>
+        <v>48.4353173</v>
       </c>
       <c r="F32" t="n">
-        <v>11.59568</v>
+        <v>11.5981507</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1268319155435819</v>
+        <v>0.7285652843325463</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Kohlstattweg 10</t>
+          <t xml:space="preserve">85391 Mühlbachstr 12a </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>K1</t>
         </is>
       </c>
     </row>
@@ -2062,13 +2062,13 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>48.4360618591308</v>
+        <v>48.429034</v>
       </c>
       <c r="F33" t="n">
-        <v>11.5969591140747</v>
+        <v>11.595351</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Dominikus-Käser-Str. 18</t>
+          <t>85391, Allershausen, Mozartstraße 11</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" t="n">
         <v>48.4249839782714</v>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.401686434735466</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2305,30 +2305,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19-20 Uhr</t>
+          <t>18-19 Uhr</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E38" t="n">
-        <v>48.439361</v>
+        <v>48.4545783996582</v>
       </c>
       <c r="F38" t="n">
-        <v>11.581596</v>
+        <v>11.60378932952881</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Bergstraße 17, 85391 Allershausen</t>
+          <t>Atterstrasse 11a 85391 Aiterbach</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>K2</t>
+          <t>K1</t>
         </is>
       </c>
     </row>
@@ -2355,20 +2355,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>später</t>
+          <t>19-20 Uhr</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E39" t="n">
-        <v>48.4308052062988</v>
+        <v>48.439361</v>
       </c>
       <c r="F39" t="n">
-        <v>11.6017570495605</v>
+        <v>11.581596</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Glonntalstr. 11c</t>
+          <t>Bergstraße 17, 85391 Allershausen</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2388,47 +2388,47 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>K3</t>
+          <t>K2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7.12 Sonntag</t>
+          <t>6.12 Samstag</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17-18 Uhr</t>
+          <t>später</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E40" t="n">
-        <v>48.4347763061523</v>
+        <v>48.4308052062988</v>
       </c>
       <c r="F40" t="n">
-        <v>11.6164474487304</v>
+        <v>11.6017570495605</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.266382110347252</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Kreuth 1A</t>
+          <t>85391 Allershausen, Glonntalstr. 11c</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2438,12 +2438,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>K3</t>
         </is>
       </c>
     </row>
@@ -2462,23 +2462,23 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
-        <v>48.4319455</v>
+        <v>48.4347763061523</v>
       </c>
       <c r="F41" t="n">
-        <v>11.5998211</v>
+        <v>11.6164474487304</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.266382110347252</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schulstrasse 3c, 85391 Allershausen </t>
+          <t>85391 Allershausen, Kreuth 1A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2505,30 +2505,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18-19 Uhr</t>
+          <t>17-18 Uhr</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
-        <v>48.4361695</v>
+        <v>48.4319455</v>
       </c>
       <c r="F42" t="n">
-        <v>11.5922389</v>
+        <v>11.5998211</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1.131490633193662</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>85391 Allershausen Dom.-Käser-Straße. 21a</t>
+          <t xml:space="preserve">Schulstrasse 3c, 85391 Allershausen </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2538,12 +2538,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K4</t>
         </is>
       </c>
     </row>
@@ -2562,36 +2562,86 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E43" t="n">
+        <v>48.4361695</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11.5922389</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.131490633193662</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>85391 Allershausen Dom.-Käser-Straße. 21a</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>N5</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7.12 Sonntag</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18-19 Uhr</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>39</v>
+      </c>
+      <c r="E44" t="n">
         <v>48.4261512756347</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>11.5949268341064</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>85391 Allershausen, Franz-Liszt-Str. 22</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>ja</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>N5</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>K5</t>
         </is>
@@ -2608,7 +2658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3484,10 +3534,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>48.4332126</v>
+        <v>48.4275164</v>
       </c>
       <c r="G28" t="n">
-        <v>11.5140135</v>
+        <v>11.5949299</v>
       </c>
     </row>
     <row r="29">
@@ -3744,17 +3794,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adalharstraße 64</t>
+          <t>85391 Allershausen, Glonntalstr. 11c</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.12 Freitag</t>
+          <t>6.12 Samstag</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17-18 Uhr</t>
+          <t>später</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3763,10 +3813,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>48.4249839782714</v>
+        <v>48.4308052062988</v>
       </c>
       <c r="G37" t="n">
-        <v>11.5921087265014</v>
+        <v>11.6017570495605</v>
       </c>
     </row>
     <row r="38">
@@ -3775,17 +3825,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Glonntalstr. 11c</t>
+          <t>Händelstr 1 B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6.12 Samstag</t>
+          <t>5.12 Freitag</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>später</t>
+          <t>19-20 Uhr</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3794,10 +3844,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>48.4308052062988</v>
+        <v>48.4283561706543</v>
       </c>
       <c r="G38" t="n">
-        <v>11.6017570495605</v>
+        <v>11.59894657135</v>
       </c>
     </row>
     <row r="39">
@@ -3806,7 +3856,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Händelstr 1 B</t>
+          <t>85391, Allershausen (Tünzhausen) Zur Hochstatt 8a</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3816,19 +3866,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19-20 Uhr</t>
+          <t>17-18 Uhr</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ja</t>
+          <t>nein</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>48.4283561706543</v>
+        <v>48.4346580505371</v>
       </c>
       <c r="G39" t="n">
-        <v>11.59894657135</v>
+        <v>11.62744140625</v>
       </c>
     </row>
     <row r="40">
@@ -3837,29 +3887,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>85391, Allershausen (Tünzhausen) Zur Hochstatt 8a</t>
+          <t>85391 Allershausen, Franz-Liszt-Str. 22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5.12 Freitag</t>
+          <t>7.12 Sonntag</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17-18 Uhr</t>
+          <t>18-19 Uhr</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>nein</t>
+          <t>ja</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>48.4346580505371</v>
+        <v>48.4261512756347</v>
       </c>
       <c r="G40" t="n">
-        <v>11.62744140625</v>
+        <v>11.5949268341064</v>
       </c>
     </row>
     <row r="41">
@@ -3868,17 +3918,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>85391 Allershausen, Franz-Liszt-Str. 22</t>
+          <t>85391, Allershausen, Dominikus-Käser-Str. 18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7.12 Sonntag</t>
+          <t>6.12 Samstag</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18-19 Uhr</t>
+          <t>17-18 Uhr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3887,10 +3937,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>48.4261512756347</v>
+        <v>48.4360618591308</v>
       </c>
       <c r="G41" t="n">
-        <v>11.5949268341064</v>
+        <v>11.5969591140747</v>
       </c>
     </row>
     <row r="42">
@@ -3899,7 +3949,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>85391, Allershausen, Dominikus-Käser-Str. 18</t>
+          <t xml:space="preserve">85391, Allershausen , Adalharstr. 62 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3909,7 +3959,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17-18 Uhr</t>
+          <t>18-19 Uhr</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3918,10 +3968,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>48.4360618591308</v>
+        <v>48.4249839782714</v>
       </c>
       <c r="G42" t="n">
-        <v>11.5969591140747</v>
+        <v>11.5921087265014</v>
       </c>
     </row>
     <row r="43">
@@ -3930,7 +3980,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">85391, Allershausen , Adalharstr. 62 </t>
+          <t>Amselweg 10, Allershausen</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3940,19 +3990,50 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>17-18 Uhr</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>48.4356002807617</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11.5929021835327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Atterstrasse 11a 85391 Aiterbach</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6.12 Samstag</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>18-19 Uhr</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ja</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>48.4249839782714</v>
-      </c>
-      <c r="G43" t="n">
-        <v>11.5921087265014</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>48.4545783996582</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.60378932952881</v>
       </c>
     </row>
   </sheetData>
@@ -4008,7 +4089,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -4080,7 +4161,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
@@ -4098,7 +4179,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
